--- a/chacha/etc/주차차_DB_TABLE.xlsx
+++ b/chacha/etc/주차차_DB_TABLE.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6555" tabRatio="815" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21420" windowHeight="6555" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UserInfo" sheetId="41" r:id="rId1"/>
     <sheet name="ParkingLot" sheetId="43" r:id="rId2"/>
     <sheet name="ParkingLot_use" sheetId="51" r:id="rId3"/>
-    <sheet name="voucher" sheetId="45" r:id="rId4"/>
-    <sheet name="voucher_use" sheetId="46" r:id="rId5"/>
-    <sheet name="reservation" sheetId="48" r:id="rId6"/>
-    <sheet name="favorite" sheetId="49" r:id="rId7"/>
-    <sheet name="review" sheetId="50" r:id="rId8"/>
+    <sheet name="Parking_keyword" sheetId="52" r:id="rId4"/>
+    <sheet name="voucher" sheetId="45" r:id="rId5"/>
+    <sheet name="voucher_use" sheetId="46" r:id="rId6"/>
+    <sheet name="reservation" sheetId="48" r:id="rId7"/>
+    <sheet name="favorite" sheetId="49" r:id="rId8"/>
+    <sheet name="review" sheetId="50" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="181">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -765,13 +766,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y : 가입중인 유저 / N : 탈퇴유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 시간 DEFAULT 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y : 사용함 N : 사용중 DEFAULT 'N'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULLABLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE TABLE Voucher_use (
    vuid    BIGINT   PRIMARY KEY AUTO_INCREMENT,
    useTime   INT    NOT NULL,
    vuse    VARCHAR(1)  NOT NULL DEFAULT 'N',
    uid    BIGINT   NOT NULL,
    vid    BIGINT   NOT NULL,
-   rid    BIGINT   NOT NULL,
+   rid    BIGINT  NULL,
    regDate   TIMESTAMP  NOT NULL DEFAULT CURRENT_TIMESTAMP,
    CONSTRAINT Voucher_use_Uid_FK FOREIGN KEY (uid) REFERENCES UserInfo(uid),
    CONSTRAINT Voucher_use_Vid_FK FOREIGN KEY (vid) REFERENCES Voucher(vid),
@@ -780,23 +805,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y : 가입중인 유저 / N : 탈퇴유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매한 시간 DEFAULT 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y : 사용함 N : 사용중 DEFAULT 'N'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT N</t>
+    <t>Parking_keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 키워드 키값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,6 +1049,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,15 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1349,76 +1382,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -1645,7 +1678,7 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -1741,71 +1774,79 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1815,14 +1856,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1857,76 +1890,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2285,71 +2318,79 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2359,14 +2400,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2401,76 +2434,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2551,7 +2584,7 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -2731,66 +2764,964 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="27" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="27" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="27" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="6">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="224.1" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="27" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" ht="27" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" ht="27" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="224.1" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2820,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -2828,7 +3759,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2847,76 +3778,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -2955,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>67</v>
@@ -2979,50 +3910,48 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="3" t="s">
         <v>170</v>
       </c>
       <c r="N8" s="9"/>
@@ -3033,98 +3962,134 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>85</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="4"/>
@@ -3134,7 +4099,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
     </row>
@@ -3146,7 +4111,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
     </row>
@@ -3154,100 +4119,90 @@
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -3257,14 +4212,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3272,7 +4219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -3280,7 +4227,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C19" sqref="C19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3299,76 +4246,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -3407,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>67</v>
@@ -3431,13 +4378,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3452,474 +4399,6 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="27" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
       <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
@@ -3993,7 +4472,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.5" customHeight="1">
@@ -4149,71 +4628,79 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4223,14 +4710,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4238,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -4265,76 +4744,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -4597,71 +5076,79 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4671,14 +5158,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4686,14 +5165,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
@@ -4713,76 +5192,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -5071,42 +5550,42 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="49.5" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="B19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="224.1" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -5136,6 +5615,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5145,14 +5632,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.59055118110236227" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
